--- a/medicine/Enfance/Florence_Cadier/Florence_Cadier.xlsx
+++ b/medicine/Enfance/Florence_Cadier/Florence_Cadier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Florence Cadier, née à Orléans le 14 septembre 1956[1], est une autrice française de littérature pour la jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Florence Cadier, née à Orléans le 14 septembre 1956, est une autrice française de littérature pour la jeunesse.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Florence Cadier a été élevée à la campagne dans le Loiret au milieu de cinq frères et sœurs. Elle a été journaliste pendant de nombreuses années, en presse écrite puis audiovisuelle. Elle a commencé à écrire des livres pour la jeunesse en 1995[2] en pensant à ses deux enfants. Puis de nombreux ouvrages pour la jeunesse ont suivi. Aujourd'hui, quand elle n'écrit pas, elle anime des ateliers d'écriture pour enfants, rencontre des collégiens en espérant leur transmettre l'envie de raconter des histoires, d'en écouter et bien entendu d'en lire : « L'important pour moi est que les jeunes apprennent à réfléchir par eux-mêmes. »
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Florence Cadier a été élevée à la campagne dans le Loiret au milieu de cinq frères et sœurs. Elle a été journaliste pendant de nombreuses années, en presse écrite puis audiovisuelle. Elle a commencé à écrire des livres pour la jeunesse en 1995 en pensant à ses deux enfants. Puis de nombreux ouvrages pour la jeunesse ont suivi. Aujourd'hui, quand elle n'écrit pas, elle anime des ateliers d'écriture pour enfants, rencontre des collégiens en espérant leur transmettre l'envie de raconter des histoires, d'en écouter et bien entendu d'en lire : « L'important pour moi est que les jeunes apprennent à réfléchir par eux-mêmes. »
 Elle est la petite-fille de Pascale Olivier (Simonne Tourraton-Deschellerins) poétesse du Tarn, amie de Louisa Paulin, et celle de Edouard Cadier, un des cinq frères Cadier, pyrénéiste et descendant d'Amy et John Bost.
 </t>
         </is>
@@ -543,16 +557,18 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Je ne t'oublierai jamais, Folio Junior, Gallimard Jeunesse
-Le Rêve de Sam, Gallimard Jeunesse, coll. « Scripto », 2008, (ISBN 2070616010)[3]
+Le Rêve de Sam, Gallimard Jeunesse, coll. « Scripto », 2008, (ISBN 2070616010)
 La faute de Rose, 2012, Thierry Magnier
 L'ombre d'un père, Thierry Magnier
 Contre Courant, Le Muscadier
 Les Miens aussi ils divorcent, De La Martinière Jeunesse, Paris, 2008
-Loups[2], Vilo Jeunesse, avec Clémentine Sourdais, 2008
-Contes de Russie, avec Peggy Nille, Vilo jeunesse, Si le monde m'était conté, septembre 2008[2]
+Loups, Vilo Jeunesse, avec Clémentine Sourdais, 2008
+Contes de Russie, avec Peggy Nille, Vilo jeunesse, Si le monde m'était conté, septembre 2008
 en collab. avec Monique Gauriau : série des Fabien (La Sœur de Fabien, La Grosse Peur de Fabien, Le Doudou de Fabien, Une surprise pour Fabien, etc.)
 Un éléphant pour mes 7 ans, Bayard, 2014
 Timousse ne veut pas de petite sœur, Belin, 2014  (série Les Robins des mers)
@@ -589,9 +605,11 @@
           <t>Prix littéraires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Pour Le rêve de Sam[4]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pour Le rêve de Sam
 Prix du roman historique de la ville de Poitiers 2009
 Prix du roman historique de la ville de Blois 2009
 Prix des dévoreurs de livres 2009
